--- a/20150324-northside_drugs/builds/development/data/maindata.xlsx
+++ b/20150324-northside_drugs/builds/development/data/maindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6453" uniqueCount="2127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6459" uniqueCount="2133">
   <si>
     <t>ArrestDate</t>
   </si>
@@ -6401,6 +6401,24 @@
   </si>
   <si>
     <t>Source: Minneapolis Police Department</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>arrests</t>
+  </si>
+  <si>
+    <t>Minneapolis Police Department</t>
+  </si>
+  <si>
+    <t>North Minneapolis drug arrests by zip code, 2014</t>
   </si>
 </sst>
 </file>
@@ -6484,7 +6502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6518,6 +6536,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6821,7 +6840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1377"/>
   <sheetViews>
-    <sheetView topLeftCell="A1338" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -43103,22 +43122,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2126</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="23" customFormat="1">
+      <c r="A6" s="23" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2131</v>
       </c>
     </row>
   </sheetData>

--- a/20150324-northside_drugs/builds/development/data/maindata.xlsx
+++ b/20150324-northside_drugs/builds/development/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="24920" windowHeight="12340" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="24920" windowHeight="12340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="arrests" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="4" r:id="rId2"/>
+    <sheet name="layout" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6459" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6478" uniqueCount="2142">
   <si>
     <t>ArrestDate</t>
   </si>
@@ -6419,13 +6420,40 @@
   </si>
   <si>
     <t>North Minneapolis drug arrests by zip code, 2014</t>
+  </si>
+  <si>
+    <t>Date of arrest</t>
+  </si>
+  <si>
+    <t>Primary arrest offense</t>
+  </si>
+  <si>
+    <t>Name of arrested suspect</t>
+  </si>
+  <si>
+    <t>Address of arrest</t>
+  </si>
+  <si>
+    <t>Intersection of arrest</t>
+  </si>
+  <si>
+    <t>Location of arrest</t>
+  </si>
+  <si>
+    <t>Personal address of suspect</t>
+  </si>
+  <si>
+    <t>Zip code of suspect</t>
+  </si>
+  <si>
+    <t>Median household income of location where suspect is from</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6444,6 +6472,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6499,8 +6543,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6538,7 +6584,9 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6841,7 +6889,7 @@
   <dimension ref="A1:I1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -43112,6 +43160,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -43124,7 +43173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -43173,4 +43222,104 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>